--- a/Data/C05 Figures.xlsx
+++ b/Data/C05 Figures.xlsx
@@ -10997,6 +10997,20 @@
         <v>4.21</v>
       </c>
     </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B755" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="C755" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="D755" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C05 Figures.xlsx
+++ b/Data/C05 Figures.xlsx
@@ -11011,6 +11011,20 @@
         <v>4.22</v>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B756" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="C756" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D756" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -12123,13 +12137,13 @@
         <v>2022</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.254181427879927</v>
+        <v>-0.238561316618378</v>
       </c>
       <c r="C79" t="n">
-        <v>0.712933278146857</v>
+        <v>0.713809831143412</v>
       </c>
       <c r="D79" t="n">
-        <v>0.458751850266929</v>
+        <v>0.475248514525034</v>
       </c>
     </row>
     <row r="80">
@@ -12137,13 +12151,27 @@
         <v>2023</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.27643916954404</v>
+        <v>-0.267232711048091</v>
       </c>
       <c r="C80" t="n">
-        <v>0.740091894158108</v>
+        <v>0.752842890303053</v>
       </c>
       <c r="D80" t="n">
-        <v>0.463652724614068</v>
+        <v>0.485610179254962</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.316373756061259</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.805943601376568</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.489569845315309</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C05 Figures.xlsx
+++ b/Data/C05 Figures.xlsx
@@ -11025,6 +11025,20 @@
         <v>4.2</v>
       </c>
     </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B757" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="C757" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D757" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -12165,13 +12179,13 @@
         <v>2024</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.316373756061259</v>
+        <v>-0.3160376468015</v>
       </c>
       <c r="C81" t="n">
-        <v>0.805943601376568</v>
+        <v>0.805087382736189</v>
       </c>
       <c r="D81" t="n">
-        <v>0.489569845315309</v>
+        <v>0.48904973593469</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C05 Figures.xlsx
+++ b/Data/C05 Figures.xlsx
@@ -11039,6 +11039,20 @@
         <v>4.21</v>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B758" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="C758" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D758" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C05 Figures.xlsx
+++ b/Data/C05 Figures.xlsx
@@ -11053,6 +11053,20 @@
         <v>4.25</v>
       </c>
     </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B759" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="C759" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D759" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C05 Figures.xlsx
+++ b/Data/C05 Figures.xlsx
@@ -11067,6 +11067,20 @@
         <v>4.23</v>
       </c>
     </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B760" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="C760" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D760" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C05 Figures.xlsx
+++ b/Data/C05 Figures.xlsx
@@ -11081,6 +11081,34 @@
         <v>4.25</v>
       </c>
     </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B761" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="C761" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D761" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B762" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="C762" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D762" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C05 Figures.xlsx
+++ b/Data/C05 Figures.xlsx
@@ -11109,6 +11109,20 @@
         <v>3.92</v>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B763" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="C763" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D763" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C05 Figures.xlsx
+++ b/Data/C05 Figures.xlsx
@@ -11123,6 +11123,20 @@
         <v>3.82</v>
       </c>
     </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B764" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="C764" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="D764" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -12235,13 +12249,13 @@
         <v>2022</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.238561316618378</v>
+        <v>-0.237460280661793</v>
       </c>
       <c r="C79" t="n">
-        <v>0.713809831143412</v>
+        <v>0.710515372924478</v>
       </c>
       <c r="D79" t="n">
-        <v>0.475248514525034</v>
+        <v>0.473055092262685</v>
       </c>
     </row>
     <row r="80">
@@ -12249,13 +12263,13 @@
         <v>2023</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.267232711048091</v>
+        <v>-0.26440366099971</v>
       </c>
       <c r="C80" t="n">
-        <v>0.752842890303053</v>
+        <v>0.744872944532259</v>
       </c>
       <c r="D80" t="n">
-        <v>0.485610179254962</v>
+        <v>0.48046928353255</v>
       </c>
     </row>
     <row r="81">
@@ -12263,13 +12277,13 @@
         <v>2024</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.3160376468015</v>
+        <v>-0.312356786168218</v>
       </c>
       <c r="C81" t="n">
-        <v>0.805087382736189</v>
+        <v>0.795710606002604</v>
       </c>
       <c r="D81" t="n">
-        <v>0.48904973593469</v>
+        <v>0.483353819834386</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C05 Figures.xlsx
+++ b/Data/C05 Figures.xlsx
@@ -11137,6 +11137,20 @@
         <v>3.78</v>
       </c>
     </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B765" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="C765" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D765" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C05 Figures.xlsx
+++ b/Data/C05 Figures.xlsx
@@ -11151,6 +11151,20 @@
         <v>3.59</v>
       </c>
     </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B766" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="C766" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D766" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
